--- a/content/cv/AllConferences_Seminar_Presentation_Summary.xlsx
+++ b/content/cv/AllConferences_Seminar_Presentation_Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boris/Documents/Seafile/Presentations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boris/Documents/WORK/CODE/GitHub/boriswebsite/content/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5FAE5E-9A95-ED4A-9526-79BA364B7A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76413F02-8BDE-4B4A-B0DE-4A0422B12742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21320" yWindow="7100" windowWidth="26800" windowHeight="17680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="240">
   <si>
     <t>Conf</t>
   </si>
@@ -738,6 +737,27 @@
   </si>
   <si>
     <t>Colloque Francophone International sur l'Enseignement de le Statistique (CFIES)</t>
+  </si>
+  <si>
+    <t>Braga</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>International Symposium on Nonparametric Statistics (ISNPS) 2024</t>
+  </si>
+  <si>
+    <t>Hejblum B, Gauthier M, Fallet S, Thiébaut R, Agniel D</t>
+  </si>
+  <si>
+    <t>Conditional independence testing by comparing empirical conditional cumulative distribution functions</t>
+  </si>
+  <si>
+    <t>ISNPS</t>
+  </si>
+  <si>
+    <t>https://w3.math.uminho.pt/ISNPS2024/</t>
   </si>
 </sst>
 </file>
@@ -833,7 +853,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -878,16 +898,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -897,8 +909,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1187,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1268,980 +1286,983 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="25">
+        <v>2024</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" s="25">
+        <v>0</v>
+      </c>
+      <c r="F2" s="25">
+        <v>1</v>
+      </c>
+      <c r="G2" s="25">
+        <v>1</v>
+      </c>
+      <c r="H2" s="25">
+        <v>0</v>
+      </c>
+      <c r="I2" s="25">
+        <v>1</v>
+      </c>
+      <c r="J2" s="25">
+        <v>1</v>
+      </c>
+      <c r="K2" s="25">
+        <v>1</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B3" s="9">
         <v>2023</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="10">
-        <v>0</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0</v>
-      </c>
-      <c r="H2" s="10">
-        <v>1</v>
-      </c>
-      <c r="I2" s="10">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10">
-        <v>0</v>
-      </c>
-      <c r="K2" s="10">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="9"/>
-    </row>
-    <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="R3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B4" s="12">
         <v>2022</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="13">
-        <v>0</v>
-      </c>
-      <c r="F3" s="13">
-        <v>1</v>
-      </c>
-      <c r="G3" s="13">
-        <v>1</v>
-      </c>
-      <c r="H3" s="13">
-        <v>1</v>
-      </c>
-      <c r="I3" s="13">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13">
-        <v>0</v>
-      </c>
-      <c r="K3" s="13">
-        <v>1</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13">
+        <v>1</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0</v>
+      </c>
+      <c r="K4" s="13">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="12"/>
-    </row>
-    <row r="4" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="R4" s="12"/>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B5" s="9">
         <v>2022</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C5" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D5" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="29">
-        <v>0</v>
-      </c>
-      <c r="F4" s="29">
-        <v>1</v>
-      </c>
-      <c r="G4" s="29">
-        <v>1</v>
-      </c>
-      <c r="H4" s="29">
-        <v>0</v>
-      </c>
-      <c r="I4" s="29">
-        <v>1</v>
-      </c>
-      <c r="J4" s="29">
-        <v>1</v>
-      </c>
-      <c r="K4" s="29">
-        <v>1</v>
-      </c>
-      <c r="M4" s="23" t="s">
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1</v>
+      </c>
+      <c r="J5" s="10">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N5" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O5" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="R5" s="9" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B6" s="9">
         <v>2022</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C6" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D6" t="s">
         <v>159</v>
       </c>
-      <c r="E5" s="22">
-        <v>0</v>
-      </c>
-      <c r="F5" s="22">
-        <v>1</v>
-      </c>
-      <c r="G5" s="22">
-        <v>0</v>
-      </c>
-      <c r="H5" s="22">
-        <v>0</v>
-      </c>
-      <c r="I5" s="22">
-        <v>1</v>
-      </c>
-      <c r="J5" s="22">
-        <v>1</v>
-      </c>
-      <c r="K5" s="22">
-        <v>1</v>
-      </c>
-      <c r="L5" s="16" t="s">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M6" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N6" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O6" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="P6" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B7" s="9">
         <v>2022</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="22">
-        <v>0</v>
-      </c>
-      <c r="F6" s="22">
-        <v>1</v>
-      </c>
-      <c r="G6" s="22">
-        <v>1</v>
-      </c>
-      <c r="H6" s="22">
-        <v>1</v>
-      </c>
-      <c r="I6" s="22">
-        <v>0</v>
-      </c>
-      <c r="J6" s="22">
-        <v>0</v>
-      </c>
-      <c r="K6" s="22">
-        <v>1</v>
-      </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="23" t="s">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N7" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O7" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="P7" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B8" s="9">
         <v>2022</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="22">
-        <v>0</v>
-      </c>
-      <c r="F7" s="22">
-        <v>1</v>
-      </c>
-      <c r="G7" s="22">
-        <v>1</v>
-      </c>
-      <c r="H7" s="22">
-        <v>0</v>
-      </c>
-      <c r="I7" s="22">
-        <v>1</v>
-      </c>
-      <c r="J7" s="22">
-        <v>1</v>
-      </c>
-      <c r="K7" s="22">
-        <v>1</v>
-      </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="23" t="s">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="16"/>
+      <c r="M8" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="N8" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="O8" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="P7" s="23" t="s">
+      <c r="P8" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B9" s="14">
         <v>2022</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1</v>
-      </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="4" t="s">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="24"/>
+      <c r="M9" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B10" s="12">
         <v>2021</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <v>1</v>
-      </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="5" t="s">
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" s="22"/>
+      <c r="M10" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N10" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O10" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P10" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B11" s="9">
         <v>2021</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="22">
-        <v>0</v>
-      </c>
-      <c r="F10" s="22">
-        <v>1</v>
-      </c>
-      <c r="G10" s="22">
-        <v>1</v>
-      </c>
-      <c r="H10" s="22">
-        <v>0</v>
-      </c>
-      <c r="I10" s="22">
-        <v>1</v>
-      </c>
-      <c r="J10" s="22">
-        <v>1</v>
-      </c>
-      <c r="K10" s="22">
-        <v>1</v>
-      </c>
-      <c r="L10" s="16" t="s">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="M11" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N10" s="23" t="s">
+      <c r="N11" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="O10" s="23" t="s">
+      <c r="O11" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="P10" s="23" t="s">
+      <c r="P11" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B12" s="9">
         <v>2021</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C12" t="s">
         <v>207</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="22">
-        <v>0</v>
-      </c>
-      <c r="F11" s="22">
-        <v>1</v>
-      </c>
-      <c r="G11" s="22">
-        <v>1</v>
-      </c>
-      <c r="H11" s="22">
-        <v>1</v>
-      </c>
-      <c r="I11" s="22">
-        <v>0</v>
-      </c>
-      <c r="J11" s="22">
-        <v>0</v>
-      </c>
-      <c r="K11" s="22">
-        <v>1</v>
-      </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="23" t="s">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="N12" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="O12" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="P11" s="23" t="s">
+      <c r="P12" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B13" s="9">
         <v>2021</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C13" t="s">
         <v>178</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="22">
-        <v>0</v>
-      </c>
-      <c r="F12" s="22">
-        <v>1</v>
-      </c>
-      <c r="G12" s="22">
-        <v>1</v>
-      </c>
-      <c r="H12" s="22">
-        <v>1</v>
-      </c>
-      <c r="I12" s="22">
-        <v>0</v>
-      </c>
-      <c r="J12" s="22">
-        <v>1</v>
-      </c>
-      <c r="K12" s="22">
-        <v>1</v>
-      </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="23" t="s">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="N13" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O12" s="23" t="s">
+      <c r="O13" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="P12" s="23" t="s">
+      <c r="P13" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B14" s="9">
         <v>2021</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C14" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="22">
-        <v>0</v>
-      </c>
-      <c r="F13" s="22">
-        <v>1</v>
-      </c>
-      <c r="G13" s="22">
-        <v>1</v>
-      </c>
-      <c r="H13" s="22">
-        <v>1</v>
-      </c>
-      <c r="I13" s="22">
-        <v>0</v>
-      </c>
-      <c r="J13" s="22">
-        <v>0</v>
-      </c>
-      <c r="K13" s="22">
-        <v>1</v>
-      </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="23" t="s">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="N14" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O13" s="23" t="s">
+      <c r="O14" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="P13" s="23" t="s">
+      <c r="P14" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B15" s="9">
         <v>2021</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C15" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="22">
-        <v>0</v>
-      </c>
-      <c r="F14" s="22">
-        <v>1</v>
-      </c>
-      <c r="G14" s="22">
-        <v>1</v>
-      </c>
-      <c r="H14" s="22">
-        <v>1</v>
-      </c>
-      <c r="I14" s="22">
-        <v>0</v>
-      </c>
-      <c r="J14" s="22">
-        <v>0</v>
-      </c>
-      <c r="K14" s="22">
-        <v>0</v>
-      </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="23" t="s">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="N14" s="23" t="s">
+      <c r="N15" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O14" s="23" t="s">
+      <c r="O15" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="P14" s="23" t="s">
+      <c r="P15" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B16" s="14">
         <v>2021</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1</v>
-      </c>
-      <c r="L15" s="28" t="s">
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M16" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N16" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P16" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="17" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B17" s="12">
         <v>2020</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1</v>
-      </c>
-      <c r="G16" s="6">
-        <v>1</v>
-      </c>
-      <c r="H16" s="6">
-        <v>1</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0</v>
-      </c>
-      <c r="L16" s="26"/>
-      <c r="M16" s="5" t="s">
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" s="22"/>
+      <c r="M17" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N17" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O17" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="P17" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B18" s="9">
         <v>2020</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C18" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="22">
-        <v>0</v>
-      </c>
-      <c r="F17" s="22">
-        <v>1</v>
-      </c>
-      <c r="G17" s="22">
-        <v>0</v>
-      </c>
-      <c r="H17" s="22">
-        <v>0</v>
-      </c>
-      <c r="I17" s="22">
-        <v>1</v>
-      </c>
-      <c r="J17" s="22">
-        <v>1</v>
-      </c>
-      <c r="K17" s="22">
-        <v>1</v>
-      </c>
-      <c r="L17" s="16" t="s">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="M17" s="23" t="s">
+      <c r="M18" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="N17" s="23" t="s">
+      <c r="N18" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="O17" s="23" t="s">
+      <c r="O18" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="P17" s="23" t="s">
+      <c r="P18" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B19" s="9">
         <v>2020</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C19" t="s">
         <v>190</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="22">
-        <v>0</v>
-      </c>
-      <c r="F18" s="22">
-        <v>1</v>
-      </c>
-      <c r="G18" s="22">
-        <v>1</v>
-      </c>
-      <c r="H18" s="22">
-        <v>1</v>
-      </c>
-      <c r="I18" s="22">
-        <v>0</v>
-      </c>
-      <c r="J18" s="22">
-        <v>0</v>
-      </c>
-      <c r="K18" s="22">
-        <v>1</v>
-      </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="23" t="s">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" s="16"/>
+      <c r="M19" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="N18" s="23" t="s">
+      <c r="N19" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O18" s="23" t="s">
+      <c r="O19" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="P18" s="23" t="s">
+      <c r="P19" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B20" s="9">
         <v>2020</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C20" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="22">
-        <v>0</v>
-      </c>
-      <c r="F19" s="22">
-        <v>1</v>
-      </c>
-      <c r="G19" s="22">
-        <v>1</v>
-      </c>
-      <c r="H19" s="22">
-        <v>1</v>
-      </c>
-      <c r="I19" s="22">
-        <v>0</v>
-      </c>
-      <c r="J19" s="22">
-        <v>0</v>
-      </c>
-      <c r="K19" s="22">
-        <v>1</v>
-      </c>
-      <c r="L19" s="16"/>
-      <c r="M19" s="23" t="s">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" s="16"/>
+      <c r="M20" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="N19" s="23" t="s">
+      <c r="N20" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O19" s="23" t="s">
+      <c r="O20" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="P19" s="23" t="s">
+      <c r="P20" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+    <row r="21" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B21" s="14">
         <v>2020</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="27">
-        <v>0</v>
-      </c>
-      <c r="F20" s="27">
-        <v>0</v>
-      </c>
-      <c r="G20" s="27">
-        <v>0</v>
-      </c>
-      <c r="H20" s="27">
-        <v>0</v>
-      </c>
-      <c r="I20" s="27">
-        <v>1</v>
-      </c>
-      <c r="J20" s="27">
-        <v>0</v>
-      </c>
-      <c r="K20" s="27">
-        <v>0</v>
-      </c>
-      <c r="P20" s="4" t="s">
+      <c r="E21" s="23">
+        <v>0</v>
+      </c>
+      <c r="F21" s="23">
+        <v>0</v>
+      </c>
+      <c r="G21" s="23">
+        <v>0</v>
+      </c>
+      <c r="H21" s="23">
+        <v>0</v>
+      </c>
+      <c r="I21" s="23">
+        <v>1</v>
+      </c>
+      <c r="J21" s="23">
+        <v>0</v>
+      </c>
+      <c r="K21" s="23">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="R20" s="14" t="s">
+      <c r="R21" s="14" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="9">
-        <v>2019</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0</v>
-      </c>
-      <c r="F21" s="10">
-        <v>1</v>
-      </c>
-      <c r="G21" s="10">
-        <v>1</v>
-      </c>
-      <c r="H21" s="10">
-        <v>1</v>
-      </c>
-      <c r="I21" s="10">
-        <v>0</v>
-      </c>
-      <c r="J21" s="10">
-        <v>1</v>
-      </c>
-      <c r="K21" s="10">
-        <v>1</v>
-      </c>
-      <c r="M21" t="s">
-        <v>230</v>
-      </c>
-      <c r="N21" t="s">
-        <v>231</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R21" s="9" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="B22" s="9">
         <v>2019</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>15</v>
@@ -2267,31 +2288,34 @@
       <c r="K22" s="10">
         <v>1</v>
       </c>
-      <c r="M22" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>149</v>
+      <c r="M22" t="s">
+        <v>230</v>
+      </c>
+      <c r="N22" t="s">
+        <v>231</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>154</v>
+        <v>232</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="B23" s="9">
         <v>2019</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E23" s="10">
         <v>0</v>
@@ -2303,10 +2327,10 @@
         <v>1</v>
       </c>
       <c r="H23" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="10">
         <v>1</v>
@@ -2314,34 +2338,31 @@
       <c r="K23" s="10">
         <v>1</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>112</v>
+      <c r="M23" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R23" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B24" s="9">
         <v>2019</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="E24" s="10">
         <v>0</v>
@@ -2365,33 +2386,33 @@
         <v>1</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>126</v>
+        <v>140</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="B25" s="9">
         <v>2019</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="E25" s="10">
         <v>0</v>
@@ -2400,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="10">
         <v>0</v>
@@ -2409,19 +2430,19 @@
         <v>1</v>
       </c>
       <c r="J25" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="10">
         <v>1</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="O25" s="5" t="s">
-        <v>150</v>
+      <c r="O25" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>42</v>
@@ -2432,16 +2453,16 @@
     </row>
     <row r="26" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B26" s="9">
         <v>2019</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E26" s="10">
         <v>0</v>
@@ -2459,19 +2480,19 @@
         <v>1</v>
       </c>
       <c r="J26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="10">
         <v>1</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>42</v>
@@ -2482,22 +2503,22 @@
     </row>
     <row r="27" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B27" s="9">
         <v>2019</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E27" s="10">
         <v>0</v>
       </c>
       <c r="F27" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="10">
         <v>0</v>
@@ -2509,10 +2530,19 @@
         <v>1</v>
       </c>
       <c r="J27" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>42</v>
@@ -2521,165 +2551,156 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
+        <v>0</v>
+      </c>
+      <c r="I28" s="10">
+        <v>1</v>
+      </c>
+      <c r="J28" s="10">
+        <v>0</v>
+      </c>
+      <c r="K28" s="10">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B29" s="12">
         <v>2018</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="13">
-        <v>0</v>
-      </c>
-      <c r="F28" s="13">
-        <v>1</v>
-      </c>
-      <c r="G28" s="13">
-        <v>0</v>
-      </c>
-      <c r="H28" s="13">
-        <v>0</v>
-      </c>
-      <c r="I28" s="13">
-        <v>1</v>
-      </c>
-      <c r="J28" s="13">
-        <v>0</v>
-      </c>
-      <c r="K28" s="13">
-        <v>0</v>
-      </c>
-      <c r="L28" s="25" t="s">
+      <c r="E29" s="13">
+        <v>0</v>
+      </c>
+      <c r="F29" s="13">
+        <v>1</v>
+      </c>
+      <c r="G29" s="13">
+        <v>0</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="13">
+        <v>1</v>
+      </c>
+      <c r="J29" s="13">
+        <v>0</v>
+      </c>
+      <c r="K29" s="13">
+        <v>0</v>
+      </c>
+      <c r="L29" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="M28" s="5" t="s">
+      <c r="M29" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N28" s="5" t="s">
+      <c r="N29" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="O28" s="5" t="s">
+      <c r="O29" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="P28" s="5" t="s">
+      <c r="P29" s="5" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="9">
-        <v>2018</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="10">
-        <v>1</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" s="10">
-        <v>0</v>
-      </c>
-      <c r="H29" s="10">
-        <v>0</v>
-      </c>
-      <c r="I29" s="10">
-        <v>1</v>
-      </c>
-      <c r="J29" s="10">
-        <v>0</v>
-      </c>
-      <c r="K29" s="10">
-        <v>1</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N29" t="s">
-        <v>56</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B30" s="9">
         <v>2018</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="10">
-        <v>0</v>
-      </c>
-      <c r="F30" s="10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="G30" s="10">
         <v>0</v>
       </c>
       <c r="H30" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="10">
         <v>0</v>
       </c>
       <c r="K30" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
+      </c>
+      <c r="N30" t="s">
+        <v>56</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="B31" s="9">
         <v>2018</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>15</v>
@@ -2688,10 +2709,10 @@
         <v>0</v>
       </c>
       <c r="F31" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="10">
         <v>1</v>
@@ -2700,243 +2721,243 @@
         <v>0</v>
       </c>
       <c r="J31" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="10">
         <v>0</v>
       </c>
-      <c r="L31" s="2"/>
+      <c r="L31" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="M31" s="2" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="B32" s="9">
         <v>2018</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10">
+        <v>1</v>
+      </c>
+      <c r="G32" s="10">
+        <v>1</v>
+      </c>
+      <c r="H32" s="10">
+        <v>1</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10">
+        <v>1</v>
+      </c>
+      <c r="K32" s="10">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C33" t="s">
         <v>68</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>16</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32" s="16" t="s">
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M33" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="N33" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="O33" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="P32" s="2" t="s">
+      <c r="P33" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+    <row r="34" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B34" s="12">
         <v>2017</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="13">
-        <v>0</v>
-      </c>
-      <c r="F33" s="13">
-        <v>1</v>
-      </c>
-      <c r="G33" s="13">
-        <v>1</v>
-      </c>
-      <c r="H33" s="13">
-        <v>0</v>
-      </c>
-      <c r="I33" s="13">
-        <v>1</v>
-      </c>
-      <c r="J33" s="13">
-        <v>0</v>
-      </c>
-      <c r="K33" s="13">
-        <v>1</v>
-      </c>
-      <c r="L33" s="5" t="s">
+      <c r="E34" s="13">
+        <v>0</v>
+      </c>
+      <c r="F34" s="13">
+        <v>1</v>
+      </c>
+      <c r="G34" s="13">
+        <v>1</v>
+      </c>
+      <c r="H34" s="13">
+        <v>0</v>
+      </c>
+      <c r="I34" s="13">
+        <v>1</v>
+      </c>
+      <c r="J34" s="13">
+        <v>0</v>
+      </c>
+      <c r="K34" s="13">
+        <v>1</v>
+      </c>
+      <c r="L34" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="M33" s="5" t="s">
+      <c r="M34" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N33" s="5" t="s">
+      <c r="N34" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="O33" s="5" t="s">
+      <c r="O34" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="P33" s="5" t="s">
+      <c r="P34" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B34" s="9">
-        <v>2017</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="10">
-        <v>0</v>
-      </c>
-      <c r="F34" s="10">
-        <v>1</v>
-      </c>
-      <c r="G34" s="10">
-        <v>1</v>
-      </c>
-      <c r="H34" s="10">
-        <v>0</v>
-      </c>
-      <c r="I34" s="10">
-        <v>1</v>
-      </c>
-      <c r="J34" s="10">
-        <v>1</v>
-      </c>
-      <c r="K34" s="10">
-        <v>1</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N34" t="s">
-        <v>56</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="B35" s="9">
         <v>2017</v>
       </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
+      <c r="C35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0</v>
+      </c>
+      <c r="F35" s="10">
+        <v>1</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10">
         <v>1</v>
       </c>
       <c r="J35" s="10">
         <v>1</v>
       </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="M35" t="s">
-        <v>52</v>
-      </c>
-      <c r="N35" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="O35" s="21" t="s">
-        <v>163</v>
+      <c r="K35" s="10">
+        <v>1</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N35" t="s">
+        <v>56</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B36" s="9">
         <v>2017</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2948,19 +2969,22 @@
         <v>1</v>
       </c>
       <c r="J36" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
-      <c r="L36" t="s">
-        <v>51</v>
+      <c r="L36" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="M36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N36" t="s">
-        <v>56</v>
+        <v>138</v>
+      </c>
+      <c r="O36" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>42</v>
@@ -2968,352 +2992,352 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B37" s="9">
         <v>2017</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="J37" s="10">
         <v>0</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
-      <c r="L37" s="18" t="s">
-        <v>55</v>
+      <c r="L37" t="s">
+        <v>51</v>
       </c>
       <c r="M37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N37" t="s">
-        <v>138</v>
-      </c>
-      <c r="O37" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M38" t="s">
+        <v>54</v>
+      </c>
+      <c r="N38" t="s">
+        <v>138</v>
+      </c>
+      <c r="O38" t="s">
+        <v>92</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B39" s="14">
         <v>2017</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
-      <c r="I38" s="3">
-        <v>1</v>
-      </c>
-      <c r="J38" s="3">
-        <v>0</v>
-      </c>
-      <c r="K38" s="3">
-        <v>1</v>
-      </c>
-      <c r="L38" s="19" t="s">
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1</v>
+      </c>
+      <c r="L39" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="O39" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P38" s="4" t="s">
+      <c r="P39" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
+    <row r="40" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B40" s="15">
         <v>2016</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="7">
-        <v>0</v>
-      </c>
-      <c r="F39" s="7">
-        <v>1</v>
-      </c>
-      <c r="G39" s="7">
-        <v>0</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7">
-        <v>1</v>
-      </c>
-      <c r="J39" s="7">
-        <v>1</v>
-      </c>
-      <c r="K39" s="7">
-        <v>1</v>
-      </c>
-      <c r="M39" s="7" t="s">
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>1</v>
+      </c>
+      <c r="J40" s="7">
+        <v>1</v>
+      </c>
+      <c r="K40" s="7">
+        <v>1</v>
+      </c>
+      <c r="M40" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="O39" s="7" t="s">
+      <c r="O40" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P39" s="8" t="s">
+      <c r="P40" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="B40" s="24">
-        <v>2015</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="20">
-        <v>1</v>
-      </c>
-      <c r="F40" s="20">
-        <v>0</v>
-      </c>
-      <c r="G40" s="20">
-        <v>0</v>
-      </c>
-      <c r="H40" s="20">
-        <v>1</v>
-      </c>
-      <c r="I40" s="20">
-        <v>0</v>
-      </c>
-      <c r="J40" s="20">
-        <v>1</v>
-      </c>
-      <c r="K40" s="20">
-        <v>1</v>
-      </c>
-      <c r="M40" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="N40" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="O40" t="s">
-        <v>144</v>
-      </c>
-      <c r="P40" s="23"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="B41" s="9">
         <v>2015</v>
       </c>
       <c r="C41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
+        <v>143</v>
+      </c>
+      <c r="N41" t="s">
+        <v>145</v>
+      </c>
+      <c r="O41" t="s">
+        <v>144</v>
+      </c>
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="9">
+        <v>2015</v>
+      </c>
+      <c r="C42" t="s">
         <v>14</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>15</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41" s="20">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="O41" t="s">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
         <v>47</v>
       </c>
-      <c r="P41" s="2" t="s">
+      <c r="P42" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+    <row r="43" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B43" s="12">
         <v>2014</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="6">
-        <v>0</v>
-      </c>
-      <c r="F42" s="6">
-        <v>1</v>
-      </c>
-      <c r="G42" s="6">
-        <v>0</v>
-      </c>
-      <c r="H42" s="6">
-        <v>0</v>
-      </c>
-      <c r="I42" s="6">
-        <v>1</v>
-      </c>
-      <c r="J42" s="6">
-        <v>0</v>
-      </c>
-      <c r="K42" s="6">
-        <v>1</v>
-      </c>
-      <c r="L42" s="6" t="s">
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
+        <v>1</v>
+      </c>
+      <c r="J43" s="6">
+        <v>0</v>
+      </c>
+      <c r="K43" s="6">
+        <v>1</v>
+      </c>
+      <c r="L43" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="M42" s="6" t="s">
+      <c r="M43" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="N42" s="6" t="s">
+      <c r="N43" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="O42" s="6" t="s">
+      <c r="O43" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="P42" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="9">
-        <v>2014</v>
-      </c>
-      <c r="C43" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43" s="20">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="M43" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="N43" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="O43" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="P43" s="2" t="s">
+      <c r="P43" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B44" s="9">
         <v>2014</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3324,20 +3348,20 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44" s="20">
+      <c r="J44">
         <v>1</v>
       </c>
       <c r="K44">
         <v>1</v>
       </c>
-      <c r="M44" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="N44" s="22" t="s">
+      <c r="M44" t="s">
+        <v>136</v>
+      </c>
+      <c r="N44" t="s">
         <v>131</v>
       </c>
-      <c r="O44" s="20" t="s">
-        <v>146</v>
+      <c r="O44" t="s">
+        <v>135</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>42</v>
@@ -3345,22 +3369,22 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B45" s="9">
         <v>2014</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3371,137 +3395,134 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45" s="20">
+      <c r="J45">
         <v>1</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
-      <c r="L45" t="s">
-        <v>95</v>
-      </c>
-      <c r="M45" t="s">
-        <v>134</v>
-      </c>
-      <c r="N45" s="22" t="s">
-        <v>132</v>
+      <c r="M45" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="N45" t="s">
+        <v>131</v>
       </c>
       <c r="O45" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="9">
+        <v>2014</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
+        <v>95</v>
+      </c>
+      <c r="M46" t="s">
+        <v>134</v>
+      </c>
+      <c r="N46" t="s">
+        <v>132</v>
+      </c>
+      <c r="O46" t="s">
+        <v>133</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B47" s="14">
         <v>2014</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1</v>
-      </c>
-      <c r="M46" s="3" t="s">
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1</v>
+      </c>
+      <c r="M47" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N46" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="O46" s="3" t="s">
+      <c r="O47" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="P46" s="4" t="s">
+      <c r="P47" s="4" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="9">
-        <v>2013</v>
-      </c>
-      <c r="C47" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47" t="s">
-        <v>94</v>
-      </c>
-      <c r="M47" t="s">
-        <v>93</v>
-      </c>
-      <c r="N47" t="s">
-        <v>130</v>
-      </c>
-      <c r="O47" t="s">
-        <v>122</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="B48" s="9">
         <v>2013</v>
       </c>
       <c r="C48" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3513,28 +3534,28 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="L48" s="17" t="s">
-        <v>77</v>
+        <v>0</v>
+      </c>
+      <c r="L48" t="s">
+        <v>94</v>
       </c>
       <c r="M48" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="N48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O48" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>42</v>
@@ -3542,31 +3563,31 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="B49" s="9">
         <v>2013</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D49" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -3574,14 +3595,17 @@
       <c r="K49">
         <v>1</v>
       </c>
+      <c r="L49" s="17" t="s">
+        <v>77</v>
+      </c>
       <c r="M49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O49" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>42</v>
@@ -3589,22 +3613,22 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B50" s="9">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -3616,77 +3640,125 @@
         <v>1</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
-      <c r="L50" t="s">
-        <v>86</v>
-      </c>
       <c r="M50" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N50" t="s">
         <v>128</v>
       </c>
       <c r="O50" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="9">
+        <v>2012</v>
+      </c>
+      <c r="C51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51" t="s">
+        <v>86</v>
+      </c>
+      <c r="M51" t="s">
+        <v>87</v>
+      </c>
+      <c r="N51" t="s">
+        <v>128</v>
+      </c>
+      <c r="O51" t="s">
+        <v>127</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B52" s="14">
         <v>2012</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E51" s="3">
-        <v>1</v>
-      </c>
-      <c r="F51" s="3">
-        <v>0</v>
-      </c>
-      <c r="G51" s="3">
-        <v>0</v>
-      </c>
-      <c r="H51" s="3">
-        <v>0</v>
-      </c>
-      <c r="I51" s="3">
-        <v>1</v>
-      </c>
-      <c r="J51" s="3">
-        <v>0</v>
-      </c>
-      <c r="K51" s="3">
-        <v>0</v>
-      </c>
-      <c r="P51" s="4" t="s">
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="4" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L34" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L32" r:id="rId2" xr:uid="{A7296FA9-E0B7-6C4E-A063-F3F03AFC4B90}"/>
-    <hyperlink ref="L48" r:id="rId3" xr:uid="{C0D0CA5D-E151-5043-B9FE-90E36F40B414}"/>
-    <hyperlink ref="L37" r:id="rId4" xr:uid="{D8CE6149-C0E2-6840-A325-4F69EAFB9DF3}"/>
-    <hyperlink ref="L38" r:id="rId5" xr:uid="{758953C0-8794-3E44-9044-966206AF296A}"/>
-    <hyperlink ref="L28" r:id="rId6" xr:uid="{686DFCEB-C8F6-384A-8F8D-25D91E16433D}"/>
-    <hyperlink ref="L5" r:id="rId7" xr:uid="{BEC0E1E1-37CC-6243-B7BD-4CB163A1AECB}"/>
-    <hyperlink ref="L35" r:id="rId8" xr:uid="{87868230-541A-6C4E-AFFA-33B9207757DB}"/>
-    <hyperlink ref="L17" r:id="rId9" xr:uid="{F4DB9E46-6ADC-3D41-B342-B117D5A24679}"/>
-    <hyperlink ref="L15" r:id="rId10" xr:uid="{1665FC53-74DA-2C45-82E3-FF20918BA164}"/>
+    <hyperlink ref="L35" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L33" r:id="rId2" xr:uid="{A7296FA9-E0B7-6C4E-A063-F3F03AFC4B90}"/>
+    <hyperlink ref="L49" r:id="rId3" xr:uid="{C0D0CA5D-E151-5043-B9FE-90E36F40B414}"/>
+    <hyperlink ref="L38" r:id="rId4" xr:uid="{D8CE6149-C0E2-6840-A325-4F69EAFB9DF3}"/>
+    <hyperlink ref="L39" r:id="rId5" xr:uid="{758953C0-8794-3E44-9044-966206AF296A}"/>
+    <hyperlink ref="L29" r:id="rId6" xr:uid="{686DFCEB-C8F6-384A-8F8D-25D91E16433D}"/>
+    <hyperlink ref="L6" r:id="rId7" xr:uid="{BEC0E1E1-37CC-6243-B7BD-4CB163A1AECB}"/>
+    <hyperlink ref="L36" r:id="rId8" xr:uid="{87868230-541A-6C4E-AFFA-33B9207757DB}"/>
+    <hyperlink ref="L18" r:id="rId9" xr:uid="{F4DB9E46-6ADC-3D41-B342-B117D5A24679}"/>
+    <hyperlink ref="L16" r:id="rId10" xr:uid="{1665FC53-74DA-2C45-82E3-FF20918BA164}"/>
+    <hyperlink ref="L2" r:id="rId11" xr:uid="{CD2FE44B-DA38-7048-B009-A6AFC4D989E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/content/cv/AllConferences_Seminar_Presentation_Summary.xlsx
+++ b/content/cv/AllConferences_Seminar_Presentation_Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boris/Documents/WORK/CODE/GitHub/boriswebsite/content/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76413F02-8BDE-4B4A-B0DE-4A0422B12742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43002D92-9F3C-FE44-97C0-C1A1212AF6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="250">
   <si>
     <t>Conf</t>
   </si>
@@ -758,6 +758,36 @@
   </si>
   <si>
     <t>https://w3.math.uminho.pt/ISNPS2024/</t>
+  </si>
+  <si>
+    <t>Grenoble</t>
+  </si>
+  <si>
+    <t>https://smpgd2026.sciencesconf.org/</t>
+  </si>
+  <si>
+    <t>Statistical Methods for Post Genomic Data 2026</t>
+  </si>
+  <si>
+    <t>Post-clustering inference: practical limitations for application to scRNA-seq data-analysis</t>
+  </si>
+  <si>
+    <t>Hejblum B, Hivert B, Agniel D, Thiébaut R</t>
+  </si>
+  <si>
+    <t>Wellcome Trust/CEPI</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Hejblum B, Hughes A, Parast L, Thiébaut R</t>
+  </si>
+  <si>
+    <t>MUSiCC</t>
+  </si>
+  <si>
+    <t>Building &amp; Evaluating Transcriptomic Surrogate Markers as Correlates of Vaccination</t>
   </si>
 </sst>
 </file>
@@ -805,7 +835,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -842,6 +872,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -853,11 +905,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -909,13 +958,34 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1205,16 +1275,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
@@ -1230,610 +1300,616 @@
     <col min="17" max="17" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="28" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="30">
+        <v>2026</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="30">
+        <v>0</v>
+      </c>
+      <c r="F2" s="30">
+        <v>0</v>
+      </c>
+      <c r="G2" s="30">
+        <v>1</v>
+      </c>
+      <c r="H2" s="30">
+        <v>0</v>
+      </c>
+      <c r="I2" s="30">
+        <v>1</v>
+      </c>
+      <c r="J2" s="30">
+        <v>1</v>
+      </c>
+      <c r="K2" s="30">
+        <v>1</v>
+      </c>
+      <c r="L2" s="20"/>
+      <c r="M2" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="26">
+        <v>2026</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="26">
+        <v>0</v>
+      </c>
+      <c r="F3" s="26">
+        <v>0</v>
+      </c>
+      <c r="G3" s="26">
+        <v>1</v>
+      </c>
+      <c r="H3" s="26">
+        <v>0</v>
+      </c>
+      <c r="I3" s="26">
+        <v>1</v>
+      </c>
+      <c r="J3" s="26">
+        <v>1</v>
+      </c>
+      <c r="K3" s="26">
+        <v>1</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B4" s="22">
         <v>2024</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C4" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D4" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E2" s="25">
-        <v>0</v>
-      </c>
-      <c r="F2" s="25">
-        <v>1</v>
-      </c>
-      <c r="G2" s="25">
-        <v>1</v>
-      </c>
-      <c r="H2" s="25">
-        <v>0</v>
-      </c>
-      <c r="I2" s="25">
-        <v>1</v>
-      </c>
-      <c r="J2" s="25">
-        <v>1</v>
-      </c>
-      <c r="K2" s="25">
-        <v>1</v>
-      </c>
-      <c r="L2" s="27" t="s">
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22">
+        <v>1</v>
+      </c>
+      <c r="G4" s="22">
+        <v>1</v>
+      </c>
+      <c r="H4" s="22">
+        <v>0</v>
+      </c>
+      <c r="I4" s="22">
+        <v>1</v>
+      </c>
+      <c r="J4" s="22">
+        <v>1</v>
+      </c>
+      <c r="K4" s="22">
+        <v>1</v>
+      </c>
+      <c r="L4" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M4" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N4" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O4" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="R4" s="22" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B5" s="8">
         <v>2023</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10">
-        <v>1</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10">
-        <v>0</v>
-      </c>
-      <c r="K3" s="10">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N5" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O5" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="9"/>
-    </row>
-    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="R5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B6" s="11">
         <v>2022</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13">
-        <v>1</v>
-      </c>
-      <c r="G4" s="13">
-        <v>1</v>
-      </c>
-      <c r="H4" s="13">
-        <v>1</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13">
-        <v>0</v>
-      </c>
-      <c r="K4" s="13">
-        <v>1</v>
-      </c>
-      <c r="M4" s="5" t="s">
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N6" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O6" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="12"/>
-    </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="R6" s="11"/>
+    </row>
+    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B7" s="8">
         <v>2022</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10">
-        <v>1</v>
-      </c>
-      <c r="J5" s="10">
-        <v>1</v>
-      </c>
-      <c r="K5" s="10">
-        <v>1</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+      <c r="K7" s="9">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N7" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="R7" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B8" s="8">
         <v>2022</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>158</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>159</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" s="16" t="s">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M8" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N8" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O8" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P8" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B9" s="8">
         <v>2022</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="2" t="s">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="15"/>
+      <c r="M9" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N9" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O9" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P9" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B10" s="8">
         <v>2022</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="2" t="s">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="15"/>
+      <c r="M10" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N10" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O10" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="P10" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B11" s="13">
         <v>2022</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1</v>
-      </c>
-      <c r="L9" s="24"/>
-      <c r="M9" s="4" t="s">
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="23"/>
+      <c r="M11" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N11" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O11" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P11" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="12" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B12" s="11">
         <v>2021</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
-        <v>1</v>
-      </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="5" t="s">
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+      <c r="L12" s="21"/>
+      <c r="M12" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N12" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O12" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P12" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B13" s="8">
         <v>2021</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="9">
-        <v>2021</v>
-      </c>
-      <c r="C12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B13" s="9">
-        <v>2021</v>
-      </c>
-      <c r="C13" t="s">
-        <v>178</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -1848,10 +1924,10 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1859,29 +1935,31 @@
       <c r="K13">
         <v>1</v>
       </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>43</v>
+      <c r="L13" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B14" s="9">
+      <c r="A14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="8">
         <v>2021</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -1907,29 +1985,29 @@
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="N14" s="2" t="s">
+      <c r="L14" s="15"/>
+      <c r="M14" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="P14" s="2" t="s">
+      <c r="O14" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B15" s="9">
+      <c r="A15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="8">
         <v>2021</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -1950,230 +2028,228 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="15"/>
+      <c r="M15" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="15"/>
+      <c r="M16" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="15"/>
+      <c r="M17" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N17" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="O17" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="P17" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="18" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B18" s="13">
         <v>2021</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3">
-        <v>1</v>
-      </c>
-      <c r="K16" s="3">
-        <v>1</v>
-      </c>
-      <c r="L16" s="24" t="s">
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M18" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N18" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="O18" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="P18" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+    <row r="19" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B19" s="11">
         <v>2020</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-      <c r="G17" s="6">
-        <v>1</v>
-      </c>
-      <c r="H17" s="6">
-        <v>1</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6">
-        <v>0</v>
-      </c>
-      <c r="K17" s="6">
-        <v>0</v>
-      </c>
-      <c r="L17" s="22"/>
-      <c r="M17" s="5" t="s">
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="21"/>
+      <c r="M19" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N19" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="O19" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="P19" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B20" s="8">
         <v>2020</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B19" s="9">
-        <v>2020</v>
-      </c>
-      <c r="C19" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19" s="16"/>
-      <c r="M19" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B20" s="9">
-        <v>2020</v>
-      </c>
-      <c r="C20" t="s">
-        <v>71</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -2185,870 +2261,871 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="2" t="s">
+      <c r="L20" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2020</v>
+      </c>
+      <c r="C21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" s="15"/>
+      <c r="M21" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2020</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" s="15"/>
+      <c r="M22" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="N22" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="O22" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="P22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+    <row r="23" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B23" s="13">
         <v>2020</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="23">
-        <v>0</v>
-      </c>
-      <c r="F21" s="23">
-        <v>0</v>
-      </c>
-      <c r="G21" s="23">
-        <v>0</v>
-      </c>
-      <c r="H21" s="23">
-        <v>0</v>
-      </c>
-      <c r="I21" s="23">
-        <v>1</v>
-      </c>
-      <c r="J21" s="23">
-        <v>0</v>
-      </c>
-      <c r="K21" s="23">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4" t="s">
+      <c r="E23" s="22">
+        <v>0</v>
+      </c>
+      <c r="F23" s="22">
+        <v>0</v>
+      </c>
+      <c r="G23" s="22">
+        <v>0</v>
+      </c>
+      <c r="H23" s="22">
+        <v>0</v>
+      </c>
+      <c r="I23" s="22">
+        <v>1</v>
+      </c>
+      <c r="J23" s="22">
+        <v>0</v>
+      </c>
+      <c r="K23" s="22">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="14" t="s">
+      <c r="R23" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="24" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B24" s="8">
         <v>2019</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="10">
-        <v>0</v>
-      </c>
-      <c r="F22" s="10">
-        <v>1</v>
-      </c>
-      <c r="G22" s="10">
-        <v>1</v>
-      </c>
-      <c r="H22" s="10">
-        <v>1</v>
-      </c>
-      <c r="I22" s="10">
-        <v>0</v>
-      </c>
-      <c r="J22" s="10">
-        <v>1</v>
-      </c>
-      <c r="K22" s="10">
-        <v>1</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9">
+        <v>1</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9">
+        <v>1</v>
+      </c>
+      <c r="K24" s="9">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
         <v>230</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N24" t="s">
         <v>231</v>
       </c>
-      <c r="O22" s="9" t="s">
+      <c r="O24" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="P24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R22" s="9" t="s">
+      <c r="R24" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="25" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B25" s="8">
         <v>2019</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="10">
-        <v>0</v>
-      </c>
-      <c r="F23" s="10">
-        <v>1</v>
-      </c>
-      <c r="G23" s="10">
-        <v>1</v>
-      </c>
-      <c r="H23" s="10">
-        <v>1</v>
-      </c>
-      <c r="I23" s="10">
-        <v>0</v>
-      </c>
-      <c r="J23" s="10">
-        <v>1</v>
-      </c>
-      <c r="K23" s="10">
-        <v>1</v>
-      </c>
-      <c r="M23" s="9" t="s">
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1</v>
+      </c>
+      <c r="H25" s="9">
+        <v>1</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <v>1</v>
+      </c>
+      <c r="K25" s="9">
+        <v>1</v>
+      </c>
+      <c r="M25" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="N25" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O23" s="9" t="s">
+      <c r="O25" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="P25" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="26" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B26" s="8">
         <v>2019</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="10">
-        <v>0</v>
-      </c>
-      <c r="F24" s="10">
-        <v>1</v>
-      </c>
-      <c r="G24" s="10">
-        <v>1</v>
-      </c>
-      <c r="H24" s="10">
-        <v>0</v>
-      </c>
-      <c r="I24" s="10">
-        <v>1</v>
-      </c>
-      <c r="J24" s="10">
-        <v>1</v>
-      </c>
-      <c r="K24" s="10">
-        <v>1</v>
-      </c>
-      <c r="M24" s="2" t="s">
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
+        <v>1</v>
+      </c>
+      <c r="J26" s="9">
+        <v>1</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="N26" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="O24" s="9" t="s">
+      <c r="O26" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="P26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R24" s="9" t="s">
+      <c r="R26" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="27" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B27" s="8">
         <v>2019</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="10">
-        <v>0</v>
-      </c>
-      <c r="F25" s="10">
-        <v>1</v>
-      </c>
-      <c r="G25" s="10">
-        <v>1</v>
-      </c>
-      <c r="H25" s="10">
-        <v>0</v>
-      </c>
-      <c r="I25" s="10">
-        <v>1</v>
-      </c>
-      <c r="J25" s="10">
-        <v>1</v>
-      </c>
-      <c r="K25" s="10">
-        <v>1</v>
-      </c>
-      <c r="M25" s="2" t="s">
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+      <c r="F27" s="9">
+        <v>1</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
+        <v>1</v>
+      </c>
+      <c r="J27" s="9">
+        <v>1</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="N27" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="O27" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="P27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R25" s="9" t="s">
+      <c r="R27" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="28" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B28" s="8">
         <v>2019</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="10">
-        <v>0</v>
-      </c>
-      <c r="F26" s="10">
-        <v>1</v>
-      </c>
-      <c r="G26" s="10">
-        <v>0</v>
-      </c>
-      <c r="H26" s="10">
-        <v>0</v>
-      </c>
-      <c r="I26" s="10">
-        <v>1</v>
-      </c>
-      <c r="J26" s="10">
-        <v>0</v>
-      </c>
-      <c r="K26" s="10">
-        <v>1</v>
-      </c>
-      <c r="M26" s="2" t="s">
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9">
+        <v>1</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9">
+        <v>1</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="N28" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O26" s="5" t="s">
+      <c r="O28" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="P28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R26" s="9" t="s">
+      <c r="R28" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="29" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B29" s="8">
         <v>2019</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="10">
-        <v>0</v>
-      </c>
-      <c r="F27" s="10">
-        <v>1</v>
-      </c>
-      <c r="G27" s="10">
-        <v>0</v>
-      </c>
-      <c r="H27" s="10">
-        <v>0</v>
-      </c>
-      <c r="I27" s="10">
-        <v>1</v>
-      </c>
-      <c r="J27" s="10">
-        <v>1</v>
-      </c>
-      <c r="K27" s="10">
-        <v>1</v>
-      </c>
-      <c r="M27" s="2" t="s">
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
+        <v>1</v>
+      </c>
+      <c r="J29" s="9">
+        <v>1</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="N29" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="O29" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="P27" s="2" t="s">
+      <c r="P29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R27" s="9" t="s">
+      <c r="R29" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="30" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B30" s="8">
         <v>2019</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="10">
-        <v>0</v>
-      </c>
-      <c r="F28" s="10">
-        <v>0</v>
-      </c>
-      <c r="G28" s="10">
-        <v>0</v>
-      </c>
-      <c r="H28" s="10">
-        <v>0</v>
-      </c>
-      <c r="I28" s="10">
-        <v>1</v>
-      </c>
-      <c r="J28" s="10">
-        <v>0</v>
-      </c>
-      <c r="K28" s="10">
-        <v>0</v>
-      </c>
-      <c r="P28" s="2" t="s">
+      <c r="E30" s="9">
+        <v>0</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9">
+        <v>1</v>
+      </c>
+      <c r="J30" s="9">
+        <v>0</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R28" s="9" t="s">
+      <c r="R30" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+    <row r="31" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B31" s="11">
         <v>2018</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="13">
-        <v>0</v>
-      </c>
-      <c r="F29" s="13">
-        <v>1</v>
-      </c>
-      <c r="G29" s="13">
-        <v>0</v>
-      </c>
-      <c r="H29" s="13">
-        <v>0</v>
-      </c>
-      <c r="I29" s="13">
-        <v>1</v>
-      </c>
-      <c r="J29" s="13">
-        <v>0</v>
-      </c>
-      <c r="K29" s="13">
-        <v>0</v>
-      </c>
-      <c r="L29" s="21" t="s">
+      <c r="E31" s="12">
+        <v>0</v>
+      </c>
+      <c r="F31" s="12">
+        <v>1</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0</v>
+      </c>
+      <c r="I31" s="12">
+        <v>1</v>
+      </c>
+      <c r="J31" s="12">
+        <v>0</v>
+      </c>
+      <c r="K31" s="12">
+        <v>0</v>
+      </c>
+      <c r="L31" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="M29" s="5" t="s">
+      <c r="M31" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="N31" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="O29" s="5" t="s">
+      <c r="O31" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="P29" s="5" t="s">
+      <c r="P31" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="32" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B32" s="8">
         <v>2018</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="10">
-        <v>1</v>
-      </c>
-      <c r="F30" s="10" t="s">
+      <c r="E32" s="9">
+        <v>1</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G30" s="10">
-        <v>0</v>
-      </c>
-      <c r="H30" s="10">
-        <v>0</v>
-      </c>
-      <c r="I30" s="10">
-        <v>1</v>
-      </c>
-      <c r="J30" s="10">
-        <v>0</v>
-      </c>
-      <c r="K30" s="10">
-        <v>1</v>
-      </c>
-      <c r="L30" s="2" t="s">
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0</v>
+      </c>
+      <c r="I32" s="9">
+        <v>1</v>
+      </c>
+      <c r="J32" s="9">
+        <v>0</v>
+      </c>
+      <c r="K32" s="9">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N32" t="s">
         <v>56</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="O32" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="P30" s="2" t="s">
+      <c r="P32" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="33" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B33" s="8">
         <v>2018</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="10">
-        <v>0</v>
-      </c>
-      <c r="F31" s="10">
-        <v>0</v>
-      </c>
-      <c r="G31" s="10">
-        <v>0</v>
-      </c>
-      <c r="H31" s="10">
-        <v>1</v>
-      </c>
-      <c r="I31" s="10">
-        <v>0</v>
-      </c>
-      <c r="J31" s="10">
-        <v>0</v>
-      </c>
-      <c r="K31" s="10">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2" t="s">
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>1</v>
+      </c>
+      <c r="I33" s="9">
+        <v>0</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M33" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="N31" s="2" t="s">
+      <c r="N33" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="O33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="P31" s="2" t="s">
+      <c r="P33" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="34" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B34" s="8">
         <v>2018</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="10">
-        <v>0</v>
-      </c>
-      <c r="F32" s="10">
-        <v>1</v>
-      </c>
-      <c r="G32" s="10">
-        <v>1</v>
-      </c>
-      <c r="H32" s="10">
-        <v>1</v>
-      </c>
-      <c r="I32" s="10">
-        <v>0</v>
-      </c>
-      <c r="J32" s="10">
-        <v>1</v>
-      </c>
-      <c r="K32" s="10">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2" t="s">
+      <c r="E34" s="9">
+        <v>0</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+      <c r="G34" s="9">
+        <v>1</v>
+      </c>
+      <c r="H34" s="9">
+        <v>1</v>
+      </c>
+      <c r="I34" s="9">
+        <v>0</v>
+      </c>
+      <c r="J34" s="9">
+        <v>1</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="N34" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="O34" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="P32" s="2" t="s">
+      <c r="P34" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B35" s="8">
         <v>2018</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>68</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>16</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33" s="16" t="s">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="M35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="N33" s="2" t="s">
+      <c r="N35" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="O35" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="P33" s="2" t="s">
+      <c r="P35" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+    <row r="36" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B36" s="11">
         <v>2017</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="13">
-        <v>0</v>
-      </c>
-      <c r="F34" s="13">
-        <v>1</v>
-      </c>
-      <c r="G34" s="13">
-        <v>1</v>
-      </c>
-      <c r="H34" s="13">
-        <v>0</v>
-      </c>
-      <c r="I34" s="13">
-        <v>1</v>
-      </c>
-      <c r="J34" s="13">
-        <v>0</v>
-      </c>
-      <c r="K34" s="13">
-        <v>1</v>
-      </c>
-      <c r="L34" s="5" t="s">
+      <c r="E36" s="12">
+        <v>0</v>
+      </c>
+      <c r="F36" s="12">
+        <v>1</v>
+      </c>
+      <c r="G36" s="12">
+        <v>1</v>
+      </c>
+      <c r="H36" s="12">
+        <v>0</v>
+      </c>
+      <c r="I36" s="12">
+        <v>1</v>
+      </c>
+      <c r="J36" s="12">
+        <v>0</v>
+      </c>
+      <c r="K36" s="12">
+        <v>1</v>
+      </c>
+      <c r="L36" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M34" s="5" t="s">
+      <c r="M36" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="N34" s="5" t="s">
+      <c r="N36" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="O34" s="5" t="s">
+      <c r="O36" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="P34" s="5" t="s">
+      <c r="P36" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+    <row r="37" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B37" s="8">
         <v>2017</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="10">
-        <v>0</v>
-      </c>
-      <c r="F35" s="10">
-        <v>1</v>
-      </c>
-      <c r="G35" s="10">
-        <v>1</v>
-      </c>
-      <c r="H35" s="10">
-        <v>0</v>
-      </c>
-      <c r="I35" s="10">
-        <v>1</v>
-      </c>
-      <c r="J35" s="10">
-        <v>1</v>
-      </c>
-      <c r="K35" s="10">
-        <v>1</v>
-      </c>
-      <c r="L35" s="11" t="s">
+      <c r="E37" s="9">
+        <v>0</v>
+      </c>
+      <c r="F37" s="9">
+        <v>1</v>
+      </c>
+      <c r="G37" s="9">
+        <v>1</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0</v>
+      </c>
+      <c r="I37" s="9">
+        <v>1</v>
+      </c>
+      <c r="J37" s="9">
+        <v>1</v>
+      </c>
+      <c r="K37" s="9">
+        <v>1</v>
+      </c>
+      <c r="L37" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="M37" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="N35" t="s">
-        <v>56</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="9">
-        <v>2017</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36" s="10">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="M36" t="s">
-        <v>52</v>
-      </c>
-      <c r="N36" t="s">
-        <v>138</v>
-      </c>
-      <c r="O36" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="9">
-        <v>2017</v>
-      </c>
-      <c r="C37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37" s="10">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37" t="s">
-        <v>51</v>
-      </c>
-      <c r="M37" t="s">
-        <v>50</v>
       </c>
       <c r="N37" t="s">
         <v>56</v>
       </c>
-      <c r="P37" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="9">
+      <c r="O37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="8">
         <v>2017</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -3060,705 +3137,803 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J38" s="9">
+        <v>1</v>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
-      <c r="L38" s="18" t="s">
-        <v>55</v>
+      <c r="L38" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="M38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N38" t="s">
         <v>138</v>
       </c>
-      <c r="O38" t="s">
+      <c r="O38" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="8">
+        <v>2017</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" s="9">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>51</v>
+      </c>
+      <c r="M39" t="s">
+        <v>50</v>
+      </c>
+      <c r="N39" t="s">
+        <v>56</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="8">
+        <v>2017</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="M40" t="s">
+        <v>54</v>
+      </c>
+      <c r="N40" t="s">
+        <v>138</v>
+      </c>
+      <c r="O40" t="s">
         <v>92</v>
       </c>
-      <c r="P38" s="2" t="s">
+      <c r="P40" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+    <row r="41" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B41" s="13">
         <v>2017</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3">
-        <v>0</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0</v>
-      </c>
-      <c r="I39" s="3">
-        <v>1</v>
-      </c>
-      <c r="J39" s="3">
-        <v>0</v>
-      </c>
-      <c r="K39" s="3">
-        <v>1</v>
-      </c>
-      <c r="L39" s="19" t="s">
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+      <c r="L41" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="M41" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="N41" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="O41" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P39" s="4" t="s">
+      <c r="P41" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
+    <row r="42" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B42" s="14">
         <v>2016</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="7">
-        <v>0</v>
-      </c>
-      <c r="F40" s="7">
-        <v>1</v>
-      </c>
-      <c r="G40" s="7">
-        <v>0</v>
-      </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>1</v>
-      </c>
-      <c r="J40" s="7">
-        <v>1</v>
-      </c>
-      <c r="K40" s="7">
-        <v>1</v>
-      </c>
-      <c r="M40" s="7" t="s">
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6">
+        <v>1</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6">
+        <v>1</v>
+      </c>
+      <c r="J42" s="6">
+        <v>1</v>
+      </c>
+      <c r="K42" s="6">
+        <v>1</v>
+      </c>
+      <c r="M42" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="N42" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O40" s="7" t="s">
+      <c r="O42" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="P40" s="8" t="s">
+      <c r="P42" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B43" s="8">
         <v>2015</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C43" t="s">
         <v>142</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D43" t="s">
         <v>19</v>
       </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="M41" t="s">
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
         <v>143</v>
       </c>
-      <c r="N41" t="s">
+      <c r="N43" t="s">
         <v>145</v>
       </c>
-      <c r="O41" t="s">
+      <c r="O43" t="s">
         <v>144</v>
       </c>
-      <c r="P41" s="2"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B44" s="8">
         <v>2015</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
         <v>14</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D44" t="s">
         <v>15</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="O42" t="s">
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="O44" t="s">
         <v>47</v>
       </c>
-      <c r="P42" s="2" t="s">
+      <c r="P44" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+    <row r="45" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B45" s="11">
         <v>2014</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="6">
-        <v>0</v>
-      </c>
-      <c r="F43" s="6">
-        <v>1</v>
-      </c>
-      <c r="G43" s="6">
-        <v>0</v>
-      </c>
-      <c r="H43" s="6">
-        <v>0</v>
-      </c>
-      <c r="I43" s="6">
-        <v>1</v>
-      </c>
-      <c r="J43" s="6">
-        <v>0</v>
-      </c>
-      <c r="K43" s="6">
-        <v>1</v>
-      </c>
-      <c r="L43" s="6" t="s">
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0</v>
+      </c>
+      <c r="I45" s="5">
+        <v>1</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0</v>
+      </c>
+      <c r="K45" s="5">
+        <v>1</v>
+      </c>
+      <c r="L45" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M43" s="6" t="s">
+      <c r="M45" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="N43" s="6" t="s">
+      <c r="N45" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="O43" s="6" t="s">
+      <c r="O45" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="P43" s="5" t="s">
+      <c r="P45" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B46" s="8">
         <v>2014</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C46" t="s">
         <v>25</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D46" t="s">
         <v>24</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="M44" t="s">
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="M46" t="s">
         <v>136</v>
       </c>
-      <c r="N44" t="s">
+      <c r="N46" t="s">
         <v>131</v>
       </c>
-      <c r="O44" t="s">
+      <c r="O46" t="s">
         <v>135</v>
       </c>
-      <c r="P44" s="2" t="s">
+      <c r="P46" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B47" s="8">
         <v>2014</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C47" t="s">
         <v>34</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D47" t="s">
         <v>36</v>
       </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="M45" s="6" t="s">
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="M47" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N47" t="s">
         <v>131</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O47" t="s">
         <v>146</v>
       </c>
-      <c r="P45" s="2" t="s">
+      <c r="P47" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B48" s="8">
         <v>2014</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C48" t="s">
         <v>14</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D48" t="s">
         <v>15</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46" t="s">
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
         <v>95</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M48" t="s">
         <v>134</v>
       </c>
-      <c r="N46" t="s">
+      <c r="N48" t="s">
         <v>132</v>
       </c>
-      <c r="O46" t="s">
+      <c r="O48" t="s">
         <v>133</v>
       </c>
-      <c r="P46" s="2" t="s">
+      <c r="P48" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B49" s="13">
         <v>2014</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>1</v>
-      </c>
-      <c r="K47" s="3">
-        <v>1</v>
-      </c>
-      <c r="M47" s="3" t="s">
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2">
+        <v>1</v>
+      </c>
+      <c r="M49" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="N49" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="O49" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="P47" s="4" t="s">
+      <c r="P49" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B50" s="8">
         <v>2013</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C50" t="s">
         <v>38</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D50" t="s">
         <v>16</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48" t="s">
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50" t="s">
         <v>94</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M50" t="s">
         <v>93</v>
       </c>
-      <c r="N48" t="s">
+      <c r="N50" t="s">
         <v>130</v>
       </c>
-      <c r="O48" t="s">
+      <c r="O50" t="s">
         <v>122</v>
       </c>
-      <c r="P48" s="2" t="s">
+      <c r="P50" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B51" s="8">
         <v>2013</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C51" t="s">
         <v>75</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D51" t="s">
         <v>15</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49" s="17" t="s">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M51" t="s">
         <v>88</v>
       </c>
-      <c r="N49" t="s">
+      <c r="N51" t="s">
         <v>129</v>
       </c>
-      <c r="O49" t="s">
+      <c r="O51" t="s">
         <v>91</v>
       </c>
-      <c r="P49" s="2" t="s">
+      <c r="P51" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B52" s="8">
         <v>2013</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C52" t="s">
         <v>33</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D52" t="s">
         <v>31</v>
       </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="M50" t="s">
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="M52" t="s">
         <v>90</v>
       </c>
-      <c r="N50" t="s">
+      <c r="N52" t="s">
         <v>128</v>
       </c>
-      <c r="O50" t="s">
+      <c r="O52" t="s">
         <v>89</v>
       </c>
-      <c r="P50" s="2" t="s">
+      <c r="P52" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B53" s="8">
         <v>2012</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C53" t="s">
         <v>26</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D53" t="s">
         <v>27</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51" t="s">
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53" t="s">
         <v>86</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M53" t="s">
         <v>87</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N53" t="s">
         <v>128</v>
       </c>
-      <c r="O51" t="s">
+      <c r="O53" t="s">
         <v>127</v>
       </c>
-      <c r="P51" s="2" t="s">
+      <c r="P53" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B54" s="13">
         <v>2012</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="4" t="s">
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2">
+        <v>1</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L35" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L33" r:id="rId2" xr:uid="{A7296FA9-E0B7-6C4E-A063-F3F03AFC4B90}"/>
-    <hyperlink ref="L49" r:id="rId3" xr:uid="{C0D0CA5D-E151-5043-B9FE-90E36F40B414}"/>
-    <hyperlink ref="L38" r:id="rId4" xr:uid="{D8CE6149-C0E2-6840-A325-4F69EAFB9DF3}"/>
-    <hyperlink ref="L39" r:id="rId5" xr:uid="{758953C0-8794-3E44-9044-966206AF296A}"/>
-    <hyperlink ref="L29" r:id="rId6" xr:uid="{686DFCEB-C8F6-384A-8F8D-25D91E16433D}"/>
-    <hyperlink ref="L6" r:id="rId7" xr:uid="{BEC0E1E1-37CC-6243-B7BD-4CB163A1AECB}"/>
-    <hyperlink ref="L36" r:id="rId8" xr:uid="{87868230-541A-6C4E-AFFA-33B9207757DB}"/>
-    <hyperlink ref="L18" r:id="rId9" xr:uid="{F4DB9E46-6ADC-3D41-B342-B117D5A24679}"/>
-    <hyperlink ref="L16" r:id="rId10" xr:uid="{1665FC53-74DA-2C45-82E3-FF20918BA164}"/>
-    <hyperlink ref="L2" r:id="rId11" xr:uid="{CD2FE44B-DA38-7048-B009-A6AFC4D989E2}"/>
+    <hyperlink ref="L37" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L35" r:id="rId2" xr:uid="{A7296FA9-E0B7-6C4E-A063-F3F03AFC4B90}"/>
+    <hyperlink ref="L51" r:id="rId3" xr:uid="{C0D0CA5D-E151-5043-B9FE-90E36F40B414}"/>
+    <hyperlink ref="L40" r:id="rId4" xr:uid="{D8CE6149-C0E2-6840-A325-4F69EAFB9DF3}"/>
+    <hyperlink ref="L41" r:id="rId5" xr:uid="{758953C0-8794-3E44-9044-966206AF296A}"/>
+    <hyperlink ref="L31" r:id="rId6" xr:uid="{686DFCEB-C8F6-384A-8F8D-25D91E16433D}"/>
+    <hyperlink ref="L8" r:id="rId7" xr:uid="{BEC0E1E1-37CC-6243-B7BD-4CB163A1AECB}"/>
+    <hyperlink ref="L38" r:id="rId8" xr:uid="{87868230-541A-6C4E-AFFA-33B9207757DB}"/>
+    <hyperlink ref="L20" r:id="rId9" xr:uid="{F4DB9E46-6ADC-3D41-B342-B117D5A24679}"/>
+    <hyperlink ref="L18" r:id="rId10" xr:uid="{1665FC53-74DA-2C45-82E3-FF20918BA164}"/>
+    <hyperlink ref="L4" r:id="rId11" xr:uid="{CD2FE44B-DA38-7048-B009-A6AFC4D989E2}"/>
+    <hyperlink ref="L3" r:id="rId12" xr:uid="{4E7545E0-4FDE-5F44-8CF3-F958E5EBED07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
